--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1110.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1110.xlsx
@@ -354,7 +354,7 @@
         <v>1.579017569424004</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.952116297760621</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1110.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1110.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9547859399072522</v>
+        <v>1.174255728721619</v>
       </c>
       <c r="B1">
-        <v>1.579017569424004</v>
+        <v>2.394660234451294</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.952116297760621</v>
+        <v>2.359913110733032</v>
       </c>
       <c r="E1">
-        <v>1.298180892081582</v>
+        <v>1.20861828327179</v>
       </c>
     </row>
   </sheetData>
